--- a/testData/muleguard-reports/rakstestmuleapi/report.xlsx
+++ b/testData/muleguard-reports/rakstestmuleapi/report.xlsx
@@ -38,21 +38,30 @@
     <t>HIGH</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>All checks passed</t>
+  </si>
+  <si>
+    <t>RULE-005</t>
+  </si>
+  <si>
+    <t>Validate IBM MQ Connector Cipher Suite</t>
+  </si>
+  <si>
+    <t>RULE-001</t>
+  </si>
+  <si>
+    <t>Update pom parent: MuleParentPom version:LATEST</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>• Forbidden token(s) - 'seceure:' found in specified files.</t>
-  </si>
-  <si>
-    <t>RULE-001</t>
-  </si>
-  <si>
-    <t>Update pom parent: MuleParentPom version:LATEST</t>
-  </si>
-  <si>
-    <t>LOW</t>
-  </si>
-  <si>
     <t>• No &lt;parent&gt; defined in pom.xml</t>
   </si>
   <si>
@@ -74,8 +83,7 @@
     <t>MEDIUM</t>
   </si>
   <si>
-    <t>• Found forbidden plugins:
-• org.apache.maven.plugins:maven-surefire-plugin:${mule.maven.plugin.version2}</t>
+    <t>• Forbidden plugin found: org.apache.maven.plugins:maven-surefire-plugin</t>
   </si>
   <si>
     <t>RULE-004</t>
@@ -84,17 +92,7 @@
     <t>Remove pom dependency: spring-security-ldap, spring-security-web, mule-module-spring-config, and db2jcc_license_cu</t>
   </si>
   <si>
-    <t>• Found forbidden dependencies:
-• com.ibm.db2:db2jcc_license_cu ()</t>
-  </si>
-  <si>
-    <t>RULE-005</t>
-  </si>
-  <si>
-    <t>Validate IBM MQ Connector Cipher Suite</t>
-  </si>
-  <si>
-    <t>• FAIL: Incorrect 'cipherSuite' value in rakstestmuleapi.xml. Found: "${rakscipher1}", Expected: "TLS_ECDHE_RSA_WITH_AES_256_GCM_SHA384".</t>
+    <t>• Forbidden dependency found: com.ibm.db2:db2jcc_license_cu</t>
   </si>
   <si>
     <t>RULE-006</t>
@@ -103,7 +101,7 @@
     <t>Add pom dependency: apimuleutilities for JCE Encrypt/Decrypt</t>
   </si>
   <si>
-    <t>• Missing required dependency: com.raks.eapi:apimuleutilities</t>
+    <t>• Required dependency not found: com.raks.eapi:apimuleutilities</t>
   </si>
   <si>
     <t>RULE-007</t>
@@ -131,7 +129,7 @@
     <t>Remove unsupported error handling expressions</t>
   </si>
   <si>
-    <t>• Unsupported error expression 'error.muleMessage' found in file: src/main/resources/dwl/test.dwl</t>
+    <t>• Unsupported error expression 'error.muleMessage' found in file: src\main\resources\dwl\test.dwl</t>
   </si>
   <si>
     <t>RULE-010</t>
@@ -140,8 +138,8 @@
     <t>Remove unsupported from/to ApplicationCode attributes</t>
   </si>
   <si>
-    <t>• Found unsupported from/to ApplicationCode attributes:
-Found unsupported 'fromApplicationCode' or 'toApplicationCode' attribute in a logging element in file src/main/mule/rakstestmuleapi.xml.</t>
+    <t>• Found forbidden attributes:
+File: src\main\mule\rakstestmuleapi.xml - Found: 'fromApplicationCode' in &lt;request_in&gt;, 'doc:id' in &lt;request_in&gt;</t>
   </si>
   <si>
     <t>RULE-011</t>
@@ -150,8 +148,7 @@
     <t>Check for DLP references</t>
   </si>
   <si>
-    <t>• DLP reference found in src/main/resources/mule-app.properties (token: north.bound.dlp.flag)
-DLP reference found in src/main/resources/mule-app.properties (token: south.bound.dlp.flag)</t>
+    <t>• Forbidden token 'north.bound.dlp.flag' found in file: src\main\resources\mule-app.properties</t>
   </si>
   <si>
     <t>RULE-012</t>
@@ -160,7 +157,7 @@
     <t>Check for legacy JCE PBE encryption algorithm</t>
   </si>
   <si>
-    <t>• FAIL: Found forbidden value 'PBEWithHmacSHA256AndAES_256' in &lt;crypto:jce-encrypt-pbe&gt; element in file src/main/mule/rakstestmuleapi.xml.</t>
+    <t>• Found forbidden value 'PBEWithHmacSHA256AndAES_256' in &lt;crypto:jce-encrypt-pbe&gt; element in file src\main\mule\rakstestmuleapi.xml</t>
   </si>
   <si>
     <t>RULE-013</t>
@@ -169,7 +166,7 @@
     <t>Check for 'type' attribute in crypto:jce-config</t>
   </si>
   <si>
-    <t>• FAIL: Found &lt;crypto:jce-config&gt; element without required 'type' attribute in file src/main/mule/rakstestmuleapi.xml.</t>
+    <t>• Found &lt;crypto:jce-config&gt; element without required 'type' attribute in file src\main\mule\rakstestmuleapi.xml</t>
   </si>
   <si>
     <t>RULE-014</t>
@@ -178,8 +175,7 @@
     <t>Check for toBase64 in set-variable</t>
   </si>
   <si>
-    <t>• Found forbidden token in element:
-• Forbidden token 'toBase64' found in &lt;set-variable&gt; element in file: src/main/mule/rakstestmuleapi.xml</t>
+    <t>• Forbidden token 'toBase64' found in file: src\main\mule\rakstestmuleapi.xml</t>
   </si>
 </sst>
 </file>
@@ -269,11 +265,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="94.87890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.41015625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.97265625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="113.78125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="97.265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.24609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.06640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="113.8984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -294,51 +290,51 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="3">
+      <c r="C2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="3">
-        <v>13</v>
+      <c r="E3" t="s" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="3">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="B4" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s" s="3">
-        <v>12</v>
-      </c>
       <c r="D4" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s" s="3">
         <v>16</v>
@@ -352,27 +348,27 @@
         <v>18</v>
       </c>
       <c r="C5" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="3">
         <v>19</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="3">
-        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="C6" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="C6" t="s" s="3">
-        <v>19</v>
-      </c>
       <c r="D6" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s" s="3">
         <v>23</v>
@@ -386,10 +382,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s" s="3">
         <v>26</v>
@@ -406,7 +402,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s" s="3">
         <v>29</v>
@@ -423,7 +419,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s" s="3">
         <v>32</v>
@@ -437,10 +433,10 @@
         <v>34</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s" s="3">
         <v>35</v>
@@ -457,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="D11" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s" s="3">
         <v>38</v>
@@ -474,7 +470,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s" s="3">
         <v>41</v>
@@ -491,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s" s="3">
         <v>44</v>
@@ -508,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s" s="3">
         <v>47</v>
@@ -525,7 +521,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s" s="3">
         <v>50</v>
@@ -542,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s" s="3">
         <v>53</v>

--- a/testData/muleguard-reports/rakstestmuleapi/report.xlsx
+++ b/testData/muleguard-reports/rakstestmuleapi/report.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t>Rule ID</t>
   </si>
@@ -44,55 +44,76 @@
     <t>All checks passed</t>
   </si>
   <si>
+    <t>RULE-009</t>
+  </si>
+  <si>
+    <t>Remove unsupported error handling expressions</t>
+  </si>
+  <si>
+    <t>RULE-011</t>
+  </si>
+  <si>
+    <t>Check for DLP references</t>
+  </si>
+  <si>
+    <t>RULE-001</t>
+  </si>
+  <si>
+    <t>Update pom parent: MuleParentPom version:LATEST</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>• POM validation failures:
+• Parent element missing in pom.xml</t>
+  </si>
+  <si>
+    <t>RULE-002</t>
+  </si>
+  <si>
+    <t>Update pom property: mule.maven.plugin.version to 4.9.0</t>
+  </si>
+  <si>
+    <t>• POM validation failures:
+• Property 'mule.maven.plugin.version' has wrong value in pom.xml: expected '4.9.0', got '4.5.3'</t>
+  </si>
+  <si>
+    <t>RULE-003</t>
+  </si>
+  <si>
+    <t>Remove pom plugin: maven-clean-plugin</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>• Forbidden POM elements found:
+• Forbidden plugin org.apache.maven.plugins:maven-surefire-plugin found in pom.xml</t>
+  </si>
+  <si>
+    <t>RULE-004</t>
+  </si>
+  <si>
+    <t>Remove pom dependency: spring-security-ldap, spring-security-web, mule-module-spring-config, and db2jcc_license_cu</t>
+  </si>
+  <si>
+    <t>• Forbidden POM elements found:
+• Forbidden dependency com.ibm.db2:db2jcc_license_cu found in pom.xml</t>
+  </si>
+  <si>
     <t>RULE-005</t>
   </si>
   <si>
     <t>Validate IBM MQ Connector Cipher Suite</t>
   </si>
   <si>
-    <t>RULE-001</t>
-  </si>
-  <si>
-    <t>Update pom parent: MuleParentPom version:LATEST</t>
-  </si>
-  <si>
-    <t>LOW</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>• No &lt;parent&gt; defined in pom.xml</t>
-  </si>
-  <si>
-    <t>RULE-002</t>
-  </si>
-  <si>
-    <t>Update pom property: mule.maven.plugin.version to 4.9.0</t>
-  </si>
-  <si>
-    <t>• Expected mule.maven.plugin.version=4.9.0, but found 4.5.3</t>
-  </si>
-  <si>
-    <t>RULE-003</t>
-  </si>
-  <si>
-    <t>Remove pom plugin: maven-clean-plugin</t>
-  </si>
-  <si>
-    <t>MEDIUM</t>
-  </si>
-  <si>
-    <t>• Forbidden plugin found: org.apache.maven.plugins:maven-surefire-plugin</t>
-  </si>
-  <si>
-    <t>RULE-004</t>
-  </si>
-  <si>
-    <t>Remove pom dependency: spring-security-ldap, spring-security-web, mule-module-spring-config, and db2jcc_license_cu</t>
-  </si>
-  <si>
-    <t>• Forbidden dependency found: com.ibm.db2:db2jcc_license_cu</t>
+    <t>• Attribute validation failures:
+• Element 'ibm:connection' with required attributes {cipherSuite=TLS_ECDHE_RSA_WITH_AES_256_GCM_SHA384} not found in file: src\main\mule\rakspoc_1.xml
+• Error parsing XML file src\main\mule\rakstestmuleapi.xml: The prefix "crypto" for element "crypto:jce-encrypt-pbe" is not bound.</t>
   </si>
   <si>
     <t>RULE-006</t>
@@ -101,7 +122,8 @@
     <t>Add pom dependency: apimuleutilities for JCE Encrypt/Decrypt</t>
   </si>
   <si>
-    <t>• Required dependency not found: com.raks.eapi:apimuleutilities</t>
+    <t>• POM validation failures:
+• Dependency com.raks.eapi:apimuleutilities not found in pom.xml</t>
   </si>
   <si>
     <t>RULE-007</t>
@@ -110,8 +132,8 @@
     <t>Validate mule-artifact.json (Mule 4.9+, Java 17, secureProperties)</t>
   </si>
   <si>
-    <t>• mule-artifact.json validation failed:
-• javaSpecificationVersions must be '17' (found: '')</t>
+    <t>• JSON validation failures:
+• Field 'javaSpecificationVersions' has wrong value in mule-artifact.json: expected '17', got ''</t>
   </si>
   <si>
     <t>RULE-008</t>
@@ -120,16 +142,9 @@
     <t>Check for api-gateway:autodiscovery</t>
   </si>
   <si>
-    <t>• API Autodiscovery is not enabled. The &lt;api-gateway:autodiscovery&gt; element is missing.</t>
-  </si>
-  <si>
-    <t>RULE-009</t>
-  </si>
-  <si>
-    <t>Remove unsupported error handling expressions</t>
-  </si>
-  <si>
-    <t>• Unsupported error expression 'error.muleMessage' found in file: src\main\resources\dwl\test.dwl</t>
+    <t>• XPath validation failures:
+• API Autodiscovery is not enabled. The &lt;api-gateway:autodiscovery&gt; element is missing. in file: src\main\mule\rakspoc_1.xml
+• Error parsing XML file src\main\mule\rakstestmuleapi.xml: The prefix "crypto" for element "crypto:jce-encrypt-pbe" is not bound.</t>
   </si>
   <si>
     <t>RULE-010</t>
@@ -138,17 +153,8 @@
     <t>Remove unsupported from/to ApplicationCode attributes</t>
   </si>
   <si>
-    <t>• Found forbidden attributes:
-File: src\main\mule\rakstestmuleapi.xml - Found: 'fromApplicationCode' in &lt;request_in&gt;, 'doc:id' in &lt;request_in&gt;</t>
-  </si>
-  <si>
-    <t>RULE-011</t>
-  </si>
-  <si>
-    <t>Check for DLP references</t>
-  </si>
-  <si>
-    <t>• Forbidden token 'north.bound.dlp.flag' found in file: src\main\resources\mule-app.properties</t>
+    <t>• Forbidden attributes found:
+• Error parsing XML file src\main\mule\rakstestmuleapi.xml: The prefix "crypto" for element "crypto:jce-encrypt-pbe" is not bound.</t>
   </si>
   <si>
     <t>RULE-012</t>
@@ -157,7 +163,8 @@
     <t>Check for legacy JCE PBE encryption algorithm</t>
   </si>
   <si>
-    <t>• Found forbidden value 'PBEWithHmacSHA256AndAES_256' in &lt;crypto:jce-encrypt-pbe&gt; element in file src\main\mule\rakstestmuleapi.xml</t>
+    <t>• Forbidden element content found:
+• Error parsing XML file src\main\mule\rakstestmuleapi.xml: The prefix "crypto" for element "crypto:jce-encrypt-pbe" is not bound.</t>
   </si>
   <si>
     <t>RULE-013</t>
@@ -166,16 +173,15 @@
     <t>Check for 'type' attribute in crypto:jce-config</t>
   </si>
   <si>
-    <t>• Found &lt;crypto:jce-config&gt; element without required 'type' attribute in file src\main\mule\rakstestmuleapi.xml</t>
+    <t>• Attribute validation failures:
+• Element 'crypto:jce-config' not found in file: src\main\mule\rakspoc_1.xml
+• Error parsing XML file src\main\mule\rakstestmuleapi.xml: The prefix "crypto" for element "crypto:jce-encrypt-pbe" is not bound.</t>
   </si>
   <si>
     <t>RULE-014</t>
   </si>
   <si>
     <t>Check for toBase64 in set-variable</t>
-  </si>
-  <si>
-    <t>• Forbidden token 'toBase64' found in file: src\main\mule\rakstestmuleapi.xml</t>
   </si>
 </sst>
 </file>
@@ -269,7 +275,7 @@
     <col min="2" max="2" width="97.265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.24609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.06640625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="113.8984375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="131.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -324,224 +330,224 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="3">
-        <v>16</v>
+      <c r="C4" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="3">
         <v>18</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s" s="3">
-        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="3">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="C6" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="3">
         <v>21</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s" s="3">
-        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="3">
         <v>24</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="D7" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s" s="3">
         <v>25</v>
-      </c>
-      <c r="C7" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s" s="3">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s" s="3">
         <v>27</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="C8" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s" s="3">
         <v>28</v>
-      </c>
-      <c r="C8" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s" s="3">
-        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s" s="3">
         <v>30</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="C9" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s" s="3">
         <v>31</v>
-      </c>
-      <c r="C9" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s" s="3">
-        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s" s="3">
         <v>33</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="C10" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s" s="3">
         <v>34</v>
-      </c>
-      <c r="C10" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s" s="3">
-        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s" s="3">
         <v>36</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="C11" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s" s="3">
         <v>37</v>
-      </c>
-      <c r="C11" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s" s="3">
-        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="3">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s" s="3">
         <v>39</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="C12" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s" s="3">
         <v>40</v>
-      </c>
-      <c r="C12" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s" s="3">
-        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="3">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s" s="3">
         <v>42</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="C13" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s" s="3">
         <v>43</v>
-      </c>
-      <c r="C13" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s" s="3">
-        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="3">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s" s="3">
         <v>45</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="C14" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s" s="3">
         <v>46</v>
-      </c>
-      <c r="C14" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E14" t="s" s="3">
-        <v>47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="3">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s" s="3">
         <v>48</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="C15" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s" s="3">
         <v>49</v>
-      </c>
-      <c r="C15" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s" s="3">
-        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="3">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s" s="3">
         <v>51</v>
       </c>
-      <c r="B16" t="s" s="3">
-        <v>52</v>
-      </c>
       <c r="C16" t="s" s="3">
         <v>7</v>
       </c>
       <c r="D16" t="s" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s" s="3">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
